--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_7_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_7_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-799045.3166276247</v>
+        <v>-801276.3316262665</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7229882.073571226</v>
+        <v>7229882.073571225</v>
       </c>
     </row>
     <row r="8">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>32.04102478057722</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>414.0192826803616</v>
       </c>
       <c r="H2" t="n">
-        <v>326.3306202891436</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>160.9954970528026</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>36.16929119563898</v>
+        <v>69.24729817631217</v>
       </c>
       <c r="S2" t="n">
         <v>179.7733425388454</v>
@@ -713,16 +713,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2429765210546</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -738,7 +738,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -756,7 +756,7 @@
         <v>105.6032821882883</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>65.75336669408796</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>57.52164616243644</v>
+        <v>57.52164616243641</v>
       </c>
       <c r="S3" t="n">
         <v>158.9278549030378</v>
@@ -792,10 +792,10 @@
         <v>197.3968100198428</v>
       </c>
       <c r="U3" t="n">
-        <v>184.3642450504516</v>
+        <v>225.8962038653876</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -804,7 +804,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>158.4894584293918</v>
       </c>
     </row>
     <row r="4">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>168.8746351331546</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,22 +823,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>97.5608895058093</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1085547440528</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>52.65622475280833</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>213.9834791694747</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>151.7699899616223</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +911,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>195.1509705068316</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1035,13 +1035,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609193</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>205.6826957773036</v>
       </c>
     </row>
     <row r="7">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>20.33297654915542</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.41927091106018</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>312.1772602390635</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1148,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>151.4321794679299</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>155.4526127311942</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>234.3107022885809</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1388,7 +1388,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>18.02571356436901</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>205.5854101330112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>121.0757368602317</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1822,16 +1822,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>239.4872859349912</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1862,7 +1862,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>174.2558672030729</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>166.998534632204</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G20" t="n">
         <v>410.9217256534534</v>
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>32.08011288840463</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2293,16 +2293,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>283.1881655551963</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2527,7 +2527,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>203.4068132192029</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>209.5675193320705</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2573,7 +2573,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>215.9919723025118</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249706</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>235.9955072668612</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>173.626889274475</v>
+        <v>20.18624009875633</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3269,16 +3269,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D35" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E35" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F35" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G35" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H35" t="n">
         <v>247.6326277687279</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T35" t="n">
         <v>156.9428335210276</v>
@@ -3326,10 +3326,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W35" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X35" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y35" t="n">
         <v>339.262802037461</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3424,25 +3424,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C37" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D37" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G37" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I37" t="n">
-        <v>49.3772837912455</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S37" t="n">
         <v>142.7938887128493</v>
@@ -3506,16 +3506,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D38" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E38" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F38" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G38" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H38" t="n">
         <v>247.6326277687279</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T38" t="n">
         <v>156.9428335210276</v>
@@ -3560,13 +3560,13 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V38" t="n">
-        <v>280.7771218515427</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W38" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X38" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y38" t="n">
         <v>339.262802037461</v>
@@ -3600,7 +3600,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247661</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3661,25 +3661,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800361</v>
       </c>
       <c r="D40" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3740,7 +3740,7 @@
         <v>335.758705044888</v>
       </c>
       <c r="C41" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D41" t="n">
         <v>307.7079050020903</v>
@@ -3749,7 +3749,7 @@
         <v>334.9552334536692</v>
       </c>
       <c r="F41" t="n">
-        <v>359.9009091231193</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G41" t="n">
         <v>363.9465890348608</v>
@@ -3837,7 +3837,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247661</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3904,19 +3904,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797657</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433864</v>
+        <v>98.44591140433937</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404356</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572818</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145473</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -3961,7 +3961,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X43" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y43" t="n">
         <v>171.6095167335022</v>
@@ -3992,7 +3992,7 @@
         <v>363.9465890348608</v>
       </c>
       <c r="H44" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958323</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
@@ -4074,7 +4074,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247661</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.856843563346</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
         <v>120.2716844800352</v>
       </c>
       <c r="D46" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797656</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433863</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G46" t="n">
         <v>119.0506716404356</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572817</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I46" t="n">
-        <v>49.3772837912455</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145473</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4189,7 +4189,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U46" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V46" t="n">
         <v>205.1625067052354</v>
@@ -4198,7 +4198,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X46" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y46" t="n">
         <v>171.6095167335022</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>803.2815074585525</v>
+        <v>1398.582435119504</v>
       </c>
       <c r="C2" t="n">
-        <v>803.2815074585525</v>
+        <v>1398.582435119504</v>
       </c>
       <c r="D2" t="n">
-        <v>803.2815074585525</v>
+        <v>1040.316736512754</v>
       </c>
       <c r="E2" t="n">
-        <v>803.2815074585525</v>
+        <v>1040.316736512754</v>
       </c>
       <c r="F2" t="n">
-        <v>796.336006709349</v>
+        <v>629.3308317231459</v>
       </c>
       <c r="G2" t="n">
-        <v>378.1347110726201</v>
+        <v>211.129536086417</v>
       </c>
       <c r="H2" t="n">
-        <v>48.50782189166686</v>
+        <v>211.129536086417</v>
       </c>
       <c r="I2" t="n">
-        <v>48.50782189166686</v>
+        <v>48.50782189166688</v>
       </c>
       <c r="J2" t="n">
-        <v>144.5203339656247</v>
+        <v>144.5203339656246</v>
       </c>
       <c r="K2" t="n">
         <v>409.1630051359716</v>
       </c>
       <c r="L2" t="n">
-        <v>789.7522675707556</v>
+        <v>789.7522675707557</v>
       </c>
       <c r="M2" t="n">
-        <v>1229.837699202508</v>
+        <v>1229.837699202509</v>
       </c>
       <c r="N2" t="n">
         <v>1662.412175667404</v>
       </c>
       <c r="O2" t="n">
-        <v>2025.692349594561</v>
+        <v>2025.692349594563</v>
       </c>
       <c r="P2" t="n">
-        <v>2298.069190349987</v>
+        <v>2298.069190349989</v>
       </c>
       <c r="Q2" t="n">
-        <v>2425.391094583343</v>
+        <v>2425.391094583344</v>
       </c>
       <c r="R2" t="n">
-        <v>2388.85645701199</v>
+        <v>2355.444328748685</v>
       </c>
       <c r="S2" t="n">
-        <v>2207.267222124267</v>
+        <v>2173.855093860962</v>
       </c>
       <c r="T2" t="n">
-        <v>2207.267222124267</v>
+        <v>2173.855093860962</v>
       </c>
       <c r="U2" t="n">
-        <v>1953.486437759566</v>
+        <v>2173.855093860962</v>
       </c>
       <c r="V2" t="n">
-        <v>1953.486437759566</v>
+        <v>2173.855093860962</v>
       </c>
       <c r="W2" t="n">
-        <v>1953.486437759566</v>
+        <v>1821.086438590848</v>
       </c>
       <c r="X2" t="n">
-        <v>1580.020679498486</v>
+        <v>1821.086438590848</v>
       </c>
       <c r="Y2" t="n">
-        <v>1189.881347522674</v>
+        <v>1430.947106615037</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>747.9214066270167</v>
+        <v>988.7919780233841</v>
       </c>
       <c r="C3" t="n">
-        <v>747.9214066270167</v>
+        <v>814.3389487422571</v>
       </c>
       <c r="D3" t="n">
-        <v>598.9869969657655</v>
+        <v>665.4045390810059</v>
       </c>
       <c r="E3" t="n">
-        <v>439.7495419603099</v>
+        <v>506.1670840755503</v>
       </c>
       <c r="F3" t="n">
-        <v>293.2149839871948</v>
+        <v>359.6325261024352</v>
       </c>
       <c r="G3" t="n">
-        <v>155.1778039000389</v>
+        <v>221.5953460152792</v>
       </c>
       <c r="H3" t="n">
-        <v>48.50782189166686</v>
+        <v>114.9253640069072</v>
       </c>
       <c r="I3" t="n">
-        <v>48.50782189166686</v>
+        <v>48.50782189166688</v>
       </c>
       <c r="J3" t="n">
         <v>111.9988366483574</v>
       </c>
       <c r="K3" t="n">
-        <v>347.1359366823946</v>
+        <v>347.1359366823947</v>
       </c>
       <c r="L3" t="n">
-        <v>724.7111816854308</v>
+        <v>724.711181685431</v>
       </c>
       <c r="M3" t="n">
         <v>1217.302905170508</v>
       </c>
       <c r="N3" t="n">
-        <v>1738.639079211273</v>
+        <v>1738.639079211274</v>
       </c>
       <c r="O3" t="n">
-        <v>2149.144148918695</v>
+        <v>2149.144148918696</v>
       </c>
       <c r="P3" t="n">
-        <v>2425.391094583343</v>
+        <v>2425.391094583344</v>
       </c>
       <c r="Q3" t="n">
-        <v>2425.391094583343</v>
+        <v>2425.391094583344</v>
       </c>
       <c r="R3" t="n">
-        <v>2367.288421691993</v>
+        <v>2367.288421691994</v>
       </c>
       <c r="S3" t="n">
-        <v>2206.755234921247</v>
+        <v>2206.755234921249</v>
       </c>
       <c r="T3" t="n">
-        <v>2007.364517729487</v>
+        <v>2007.364517729489</v>
       </c>
       <c r="U3" t="n">
-        <v>1821.138007577516</v>
+        <v>1779.186534027077</v>
       </c>
       <c r="V3" t="n">
-        <v>1585.985899345773</v>
+        <v>1779.186534027077</v>
       </c>
       <c r="W3" t="n">
-        <v>1331.748542617572</v>
+        <v>1524.949177298876</v>
       </c>
       <c r="X3" t="n">
-        <v>1123.897042412039</v>
+        <v>1317.097677093343</v>
       </c>
       <c r="Y3" t="n">
-        <v>916.1367436470848</v>
+        <v>1157.007315043452</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>453.6627783527085</v>
+        <v>248.5858752004947</v>
       </c>
       <c r="C4" t="n">
-        <v>453.6627783527085</v>
+        <v>248.5858752004947</v>
       </c>
       <c r="D4" t="n">
-        <v>453.6627783527085</v>
+        <v>248.5858752004947</v>
       </c>
       <c r="E4" t="n">
-        <v>305.7496847703154</v>
+        <v>248.5858752004947</v>
       </c>
       <c r="F4" t="n">
-        <v>305.7496847703154</v>
+        <v>101.6959277025844</v>
       </c>
       <c r="G4" t="n">
-        <v>207.2033317341444</v>
+        <v>101.6959277025844</v>
       </c>
       <c r="H4" t="n">
-        <v>48.50782189166686</v>
+        <v>101.6959277025844</v>
       </c>
       <c r="I4" t="n">
-        <v>48.50782189166686</v>
+        <v>101.6959277025844</v>
       </c>
       <c r="J4" t="n">
-        <v>48.50782189166686</v>
+        <v>48.50782189166688</v>
       </c>
       <c r="K4" t="n">
-        <v>92.67960950952636</v>
+        <v>92.67960950952641</v>
       </c>
       <c r="L4" t="n">
-        <v>204.7307244491453</v>
+        <v>204.7307244491454</v>
       </c>
       <c r="M4" t="n">
-        <v>333.262037521877</v>
+        <v>333.2620375218772</v>
       </c>
       <c r="N4" t="n">
-        <v>464.1717796732026</v>
+        <v>464.1717796732029</v>
       </c>
       <c r="O4" t="n">
-        <v>569.0718193912176</v>
+        <v>569.0718193912179</v>
       </c>
       <c r="P4" t="n">
-        <v>635.3112431829483</v>
+        <v>635.3112431829486</v>
       </c>
       <c r="Q4" t="n">
-        <v>635.3112431829483</v>
+        <v>635.3112431829486</v>
       </c>
       <c r="R4" t="n">
-        <v>635.3112431829483</v>
+        <v>635.3112431829486</v>
       </c>
       <c r="S4" t="n">
-        <v>635.3112431829483</v>
+        <v>419.1663147289337</v>
       </c>
       <c r="T4" t="n">
-        <v>635.3112431829483</v>
+        <v>419.1663147289337</v>
       </c>
       <c r="U4" t="n">
-        <v>635.3112431829483</v>
+        <v>419.1663147289337</v>
       </c>
       <c r="V4" t="n">
-        <v>635.3112431829483</v>
+        <v>419.1663147289337</v>
       </c>
       <c r="W4" t="n">
-        <v>635.3112431829483</v>
+        <v>419.1663147289337</v>
       </c>
       <c r="X4" t="n">
-        <v>635.3112431829483</v>
+        <v>419.1663147289337</v>
       </c>
       <c r="Y4" t="n">
-        <v>635.3112431829483</v>
+        <v>419.1663147289337</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1036.358670716696</v>
+        <v>2090.618650386199</v>
       </c>
       <c r="C5" t="n">
-        <v>1036.358670716696</v>
+        <v>1721.656133445787</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.390434839037</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2443.387305656313</v>
       </c>
       <c r="V5" t="n">
-        <v>1796.424269041897</v>
+        <v>2443.387305656313</v>
       </c>
       <c r="W5" t="n">
-        <v>1796.424269041897</v>
+        <v>2090.618650386199</v>
       </c>
       <c r="X5" t="n">
-        <v>1422.958510780817</v>
+        <v>2090.618650386199</v>
       </c>
       <c r="Y5" t="n">
-        <v>1422.958510780817</v>
+        <v>2090.618650386199</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>289.0740493317991</v>
+        <v>437.5354894428045</v>
       </c>
       <c r="C7" t="n">
-        <v>120.1378664038922</v>
+        <v>268.5993065148976</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>268.5993065148976</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>268.5993065148976</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>268.5993065148976</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4747,28 +4747,28 @@
         <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>651.8239126246418</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>437.5354894428045</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>437.5354894428045</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>437.5354894428045</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>437.5354894428045</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>437.5354894428045</v>
       </c>
       <c r="X7" t="n">
-        <v>470.7225141620388</v>
+        <v>437.5354894428045</v>
       </c>
       <c r="Y7" t="n">
-        <v>470.7225141620388</v>
+        <v>437.5354894428045</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2302.336936304455</v>
+        <v>1198.223260609829</v>
       </c>
       <c r="C8" t="n">
-        <v>1933.374419364044</v>
+        <v>1198.223260609829</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.108720757293</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E8" t="n">
-        <v>1189.320468159049</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>778.3345633694414</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>360.3707552676283</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224075</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2302.336936304455</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W8" t="n">
-        <v>2302.336936304455</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X8" t="n">
-        <v>2302.336936304455</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y8" t="n">
-        <v>2302.336936304455</v>
+        <v>1584.823100673951</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4884,10 +4884,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4920,10 +4920,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59950625323012</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>99.59950625323012</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V10" t="n">
-        <v>99.59950625323012</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W10" t="n">
-        <v>99.59950625323012</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X10" t="n">
-        <v>99.59950625323012</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.59950625323012</v>
+        <v>210.9658229629848</v>
       </c>
     </row>
     <row r="11">
@@ -5024,16 +5024,16 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
@@ -5054,13 +5054,13 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O11" t="n">
-        <v>3517.878731871643</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4231.233819318589</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4689.712021827577</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1120.662598458018</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="C13" t="n">
-        <v>951.7264155301116</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D13" t="n">
-        <v>801.6097761177758</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E13" t="n">
-        <v>653.6966825353827</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F13" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5221,28 +5221,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1764.65758193153</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1764.65758193153</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V13" t="n">
-        <v>1509.973093725643</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W13" t="n">
-        <v>1509.973093725643</v>
+        <v>891.0653626991802</v>
       </c>
       <c r="X13" t="n">
-        <v>1509.973093725643</v>
+        <v>891.0653626991802</v>
       </c>
       <c r="Y13" t="n">
-        <v>1302.311063288258</v>
+        <v>891.0653626991802</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E14" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5276,52 +5276,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N14" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O14" t="n">
-        <v>3517.878731871643</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
-        <v>4231.233819318589</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
-        <v>4689.712021827577</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G15" t="n">
         <v>205.0702204089889</v>
@@ -5361,7 +5361,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5373,22 +5373,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5397,10 +5397,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>929.0412991518393</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="C16" t="n">
-        <v>760.1051162239324</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="D16" t="n">
-        <v>609.9884768115967</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E16" t="n">
-        <v>462.0753832292036</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F16" t="n">
-        <v>315.1854357312932</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G16" t="n">
-        <v>315.1854357312932</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5458,28 +5458,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U16" t="n">
-        <v>1667.240599230347</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="V16" t="n">
-        <v>1667.240599230347</v>
+        <v>1143.817908385417</v>
       </c>
       <c r="W16" t="n">
-        <v>1377.823429193387</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="X16" t="n">
-        <v>1149.833878295369</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="Y16" t="n">
-        <v>929.0412991518393</v>
+        <v>854.4007383484569</v>
       </c>
     </row>
     <row r="17">
@@ -5492,49 +5492,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.557933208926</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L17" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483406</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542188</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O17" t="n">
-        <v>3517.878731871643</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4231.233819318589</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4689.712021827577</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5610,22 +5610,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5634,10 +5634,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>704.2840989361212</v>
+        <v>726.3303343661177</v>
       </c>
       <c r="C19" t="n">
-        <v>704.2840989361212</v>
+        <v>557.3941514382108</v>
       </c>
       <c r="D19" t="n">
-        <v>704.2840989361212</v>
+        <v>557.3941514382108</v>
       </c>
       <c r="E19" t="n">
-        <v>556.371005353728</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F19" t="n">
         <v>409.4810578558177</v>
@@ -5674,49 +5674,49 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927045</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892254</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.796070598118</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518532</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.733169952191</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104706</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862234</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S19" t="n">
-        <v>1866.513008862234</v>
+        <v>1780.327438626852</v>
       </c>
       <c r="T19" t="n">
-        <v>1644.74639343176</v>
+        <v>1780.327438626852</v>
       </c>
       <c r="U19" t="n">
-        <v>1355.643526557403</v>
+        <v>1491.224571752495</v>
       </c>
       <c r="V19" t="n">
-        <v>1100.959038351516</v>
+        <v>1236.540083546608</v>
       </c>
       <c r="W19" t="n">
-        <v>932.2736498341385</v>
+        <v>947.1229135096478</v>
       </c>
       <c r="X19" t="n">
-        <v>704.2840989361212</v>
+        <v>947.1229135096478</v>
       </c>
       <c r="Y19" t="n">
-        <v>704.2840989361212</v>
+        <v>726.3303343661177</v>
       </c>
     </row>
     <row r="20">
@@ -5732,16 +5732,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5750,22 +5750,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>416.3606924710451</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K20" t="n">
-        <v>750.1800661608916</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L20" t="n">
-        <v>1614.698881814246</v>
+        <v>1797.11783460013</v>
       </c>
       <c r="M20" t="n">
-        <v>2593.249184644075</v>
+        <v>2330.649739272054</v>
       </c>
       <c r="N20" t="n">
-        <v>3573.001456870722</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P20" t="n">
         <v>4470.748294107237</v>
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
@@ -5829,40 +5829,40 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P21" t="n">
         <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>561.9298856159689</v>
+        <v>536.5812623108401</v>
       </c>
       <c r="C22" t="n">
-        <v>392.9937026880621</v>
+        <v>536.5812623108401</v>
       </c>
       <c r="D22" t="n">
-        <v>392.9937026880621</v>
+        <v>536.5812623108401</v>
       </c>
       <c r="E22" t="n">
-        <v>392.9937026880621</v>
+        <v>388.668168728447</v>
       </c>
       <c r="F22" t="n">
-        <v>392.9937026880621</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G22" t="n">
-        <v>225.290866062781</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5911,7 +5911,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5923,37 +5923,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U22" t="n">
-        <v>1253.788099626699</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="V22" t="n">
-        <v>1253.788099626699</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="W22" t="n">
-        <v>964.3709295897388</v>
+        <v>1167.011857182627</v>
       </c>
       <c r="X22" t="n">
-        <v>964.3709295897388</v>
+        <v>939.02230628461</v>
       </c>
       <c r="Y22" t="n">
-        <v>743.5783504462087</v>
+        <v>718.2297271410798</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551634</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G23" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483406</v>
+        <v>2337.214217867998</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542188</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O23" t="n">
-        <v>3517.878731871643</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P23" t="n">
-        <v>4231.233819318589</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q23" t="n">
-        <v>4689.712021827577</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6057,37 +6057,37 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6160,37 +6160,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T25" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>1015.408799357142</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W25" t="n">
-        <v>725.9916293201816</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X25" t="n">
         <v>498.0020784221642</v>
       </c>
       <c r="Y25" t="n">
-        <v>277.2094992786342</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551634</v>
       </c>
       <c r="G26" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1521.866738172572</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483406</v>
+        <v>2055.398642844496</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542188</v>
+        <v>2602.177459903278</v>
       </c>
       <c r="O26" t="n">
-        <v>3517.878731871643</v>
+        <v>3482.142110232733</v>
       </c>
       <c r="P26" t="n">
-        <v>4231.233819318589</v>
+        <v>4195.497197679679</v>
       </c>
       <c r="Q26" t="n">
-        <v>4689.712021827577</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
@@ -6300,16 +6300,16 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6321,22 +6321,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6345,10 +6345,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839442</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6397,37 +6397,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S28" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T28" t="n">
-        <v>1559.196154437386</v>
+        <v>1546.483872535053</v>
       </c>
       <c r="U28" t="n">
-        <v>1270.093287563029</v>
+        <v>1257.381005660696</v>
       </c>
       <c r="V28" t="n">
-        <v>1015.408799357142</v>
+        <v>1002.69651745481</v>
       </c>
       <c r="W28" t="n">
-        <v>725.9916293201816</v>
+        <v>713.2793474178488</v>
       </c>
       <c r="X28" t="n">
-        <v>498.0020784221642</v>
+        <v>485.2897965198315</v>
       </c>
       <c r="Y28" t="n">
-        <v>277.2094992786341</v>
+        <v>264.4972173763014</v>
       </c>
     </row>
     <row r="29">
@@ -6452,34 +6452,34 @@
         <v>850.2139837551634</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001593</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839444</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1971.087962216427</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2504.619866888351</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N29" t="n">
-        <v>3051.398683947134</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O29" t="n">
-        <v>3554.371154826471</v>
+        <v>4075.97392775006</v>
       </c>
       <c r="P29" t="n">
-        <v>4267.726242273417</v>
+        <v>4470.748294107238</v>
       </c>
       <c r="Q29" t="n">
         <v>4719.03465586292</v>
@@ -6655,16 +6655,16 @@
         <v>1253.788099626699</v>
       </c>
       <c r="V31" t="n">
-        <v>1015.408799357142</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W31" t="n">
-        <v>725.9916293201816</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X31" t="n">
-        <v>498.0020784221642</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="Y31" t="n">
-        <v>277.2094992786342</v>
+        <v>260.9043113423041</v>
       </c>
     </row>
     <row r="32">
@@ -6692,31 +6692,31 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.557933208926</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>413.1422297553295</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>1067.865561890629</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1518.899775139038</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2497.450077968866</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N32" t="n">
-        <v>3044.228895027648</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O32" t="n">
-        <v>3547.201365906985</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P32" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
         <v>4719.034655862919</v>
@@ -6798,7 +6798,7 @@
         <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
         <v>2593.958107142068</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.56103444839442</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G34" t="n">
         <v>95.56103444839442</v>
@@ -6883,25 +6883,25 @@
         <v>1956.343466104703</v>
       </c>
       <c r="S34" t="n">
-        <v>1780.96276986786</v>
+        <v>1935.953324590808</v>
       </c>
       <c r="T34" t="n">
-        <v>1559.196154437386</v>
+        <v>1714.186709160334</v>
       </c>
       <c r="U34" t="n">
-        <v>1270.093287563029</v>
+        <v>1425.083842285977</v>
       </c>
       <c r="V34" t="n">
-        <v>1015.408799357142</v>
+        <v>1170.39935408009</v>
       </c>
       <c r="W34" t="n">
-        <v>725.9916293201816</v>
+        <v>880.9821840431298</v>
       </c>
       <c r="X34" t="n">
-        <v>498.0020784221642</v>
+        <v>652.9926331451124</v>
       </c>
       <c r="Y34" t="n">
-        <v>277.2094992786341</v>
+        <v>432.2000540015823</v>
       </c>
     </row>
     <row r="35">
@@ -6926,7 +6926,7 @@
         <v>698.9037015467788</v>
       </c>
       <c r="G35" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H35" t="n">
         <v>81.14691689668915</v>
@@ -6938,19 +6938,19 @@
         <v>437.4316968760676</v>
       </c>
       <c r="K35" t="n">
-        <v>937.3106675423226</v>
+        <v>842.4067862271445</v>
       </c>
       <c r="L35" t="n">
-        <v>1388.344880790731</v>
+        <v>1706.925601880499</v>
       </c>
       <c r="M35" t="n">
-        <v>1921.876785462656</v>
+        <v>2240.457506552423</v>
       </c>
       <c r="N35" t="n">
-        <v>2468.655602521438</v>
+        <v>2787.236323611206</v>
       </c>
       <c r="O35" t="n">
-        <v>2971.628073400775</v>
+        <v>3290.208794490542</v>
       </c>
       <c r="P35" t="n">
         <v>3684.98316084772</v>
@@ -6971,7 +6971,7 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V35" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W35" t="n">
         <v>3040.963574146293</v>
@@ -6990,16 +6990,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>956.1786549456142</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C36" t="n">
-        <v>781.7256256644872</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D36" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E36" t="n">
-        <v>473.5537609977805</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F36" t="n">
         <v>327.0192030246656</v>
@@ -7014,7 +7014,7 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J36" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K36" t="n">
         <v>413.0883853676535</v>
@@ -7026,16 +7026,16 @@
         <v>1227.062870902635</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O36" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P36" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q36" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R36" t="n">
         <v>2579.543989590362</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D37" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F37" t="n">
         <v>350.0437186415471</v>
@@ -7093,16 +7093,16 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J37" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K37" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L37" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M37" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N37" t="n">
         <v>1564.908879308444</v>
@@ -7111,7 +7111,7 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P37" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q37" t="n">
         <v>2313.972430572251</v>
@@ -7138,7 +7138,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C38" t="n">
         <v>1711.594658697161</v>
@@ -7160,10 +7160,10 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467787</v>
       </c>
       <c r="G38" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H38" t="n">
         <v>81.14691689668915</v>
@@ -7172,31 +7172,31 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J38" t="n">
-        <v>437.4316968760676</v>
+        <v>393.29945309917</v>
       </c>
       <c r="K38" t="n">
-        <v>1092.155029011367</v>
+        <v>727.1188267890163</v>
       </c>
       <c r="L38" t="n">
-        <v>1706.925601880499</v>
+        <v>1178.153040037425</v>
       </c>
       <c r="M38" t="n">
-        <v>2240.457506552423</v>
+        <v>1711.684944709349</v>
       </c>
       <c r="N38" t="n">
-        <v>2787.236323611206</v>
+        <v>2258.463761768131</v>
       </c>
       <c r="O38" t="n">
-        <v>3290.208794490542</v>
+        <v>2761.436232647468</v>
       </c>
       <c r="P38" t="n">
-        <v>3684.98316084772</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q38" t="n">
         <v>3933.269522603402</v>
       </c>
       <c r="R38" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S38" t="n">
         <v>3994.504809309626</v>
@@ -7208,7 +7208,7 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V38" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W38" t="n">
         <v>3040.963574146293</v>
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>956.1786549456135</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C39" t="n">
-        <v>781.7256256644865</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D39" t="n">
-        <v>632.7912160032353</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E39" t="n">
-        <v>473.5537609977798</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F39" t="n">
-        <v>327.0192030246648</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G39" t="n">
-        <v>190.6561028572829</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H39" t="n">
-        <v>100.1542084951504</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I39" t="n">
         <v>81.14691689668915</v>
@@ -7275,25 +7275,25 @@
         <v>2579.688342997846</v>
       </c>
       <c r="R39" t="n">
-        <v>2579.543989590361</v>
+        <v>2579.543989590362</v>
       </c>
       <c r="S39" t="n">
-        <v>2450.106103083841</v>
+        <v>2450.106103083842</v>
       </c>
       <c r="T39" t="n">
-        <v>2257.463102761697</v>
+        <v>2257.463102761698</v>
       </c>
       <c r="U39" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V39" t="n">
-        <v>1794.24314766437</v>
+        <v>1794.243147664371</v>
       </c>
       <c r="W39" t="n">
-        <v>1540.005790936168</v>
+        <v>1540.005790936169</v>
       </c>
       <c r="X39" t="n">
-        <v>1332.154290730635</v>
+        <v>1332.154290730636</v>
       </c>
       <c r="Y39" t="n">
         <v>1124.393991965682</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502697992</v>
+        <v>774.1010502698007</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899657</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257033</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4840331913836</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F40" t="n">
         <v>350.0437186415471</v>
       </c>
       <c r="G40" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H40" t="n">
         <v>131.0229611302705</v>
@@ -7330,25 +7330,25 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J40" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K40" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L40" t="n">
-        <v>786.3326864982166</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M40" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N40" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O40" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P40" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q40" t="n">
         <v>2313.972430572251</v>
@@ -7360,22 +7360,22 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T40" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U40" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V40" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W40" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X40" t="n">
-        <v>1081.642828347422</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519657</v>
+        <v>908.299882151967</v>
       </c>
     </row>
     <row r="41">
@@ -7385,16 +7385,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C41" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D41" t="n">
         <v>1400.778593038484</v>
       </c>
       <c r="E41" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F41" t="n">
         <v>698.9037015467788</v>
@@ -7412,28 +7412,28 @@
         <v>437.4316968760676</v>
       </c>
       <c r="K41" t="n">
-        <v>1092.155029011367</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L41" t="n">
-        <v>1543.189242259775</v>
+        <v>1261.907203722595</v>
       </c>
       <c r="M41" t="n">
-        <v>2076.7211469317</v>
+        <v>2240.457506552423</v>
       </c>
       <c r="N41" t="n">
-        <v>2623.499963990482</v>
+        <v>2787.236323611205</v>
       </c>
       <c r="O41" t="n">
-        <v>3126.472434869819</v>
+        <v>3290.208794490542</v>
       </c>
       <c r="P41" t="n">
-        <v>3521.246801226996</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q41" t="n">
         <v>3933.269522603402</v>
       </c>
       <c r="R41" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S41" t="n">
         <v>3994.504809309626</v>
@@ -7445,13 +7445,13 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V41" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W41" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X41" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y41" t="n">
         <v>2372.257749805548</v>
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456135</v>
       </c>
       <c r="C42" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644865</v>
       </c>
       <c r="D42" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032353</v>
       </c>
       <c r="E42" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977798</v>
       </c>
       <c r="F42" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246648</v>
       </c>
       <c r="G42" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572829</v>
       </c>
       <c r="H42" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951504</v>
       </c>
       <c r="I42" t="n">
         <v>81.14691689668915</v>
@@ -7512,25 +7512,25 @@
         <v>2579.688342997846</v>
       </c>
       <c r="R42" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590361</v>
       </c>
       <c r="S42" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083841</v>
       </c>
       <c r="T42" t="n">
-        <v>2257.463102761698</v>
+        <v>2257.463102761697</v>
       </c>
       <c r="U42" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V42" t="n">
-        <v>1794.243147664371</v>
+        <v>1794.24314766437</v>
       </c>
       <c r="W42" t="n">
-        <v>1540.005790936169</v>
+        <v>1540.005790936168</v>
       </c>
       <c r="X42" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730635</v>
       </c>
       <c r="Y42" t="n">
         <v>1124.393991965682</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698007</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899671</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257047</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913849</v>
       </c>
       <c r="F43" t="n">
         <v>350.0437186415471</v>
       </c>
       <c r="G43" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H43" t="n">
         <v>131.0229611302705</v>
@@ -7567,25 +7567,25 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J43" t="n">
-        <v>172.7749345960307</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K43" t="n">
-        <v>423.2675027973137</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L43" t="n">
-        <v>786.3326864982164</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M43" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N43" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O43" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P43" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q43" t="n">
         <v>2313.972430572251</v>
@@ -7597,22 +7597,22 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T43" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U43" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V43" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W43" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X43" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519662</v>
+        <v>908.299882151967</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C44" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D44" t="n">
         <v>1400.778593038484</v>
       </c>
       <c r="E44" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F44" t="n">
-        <v>698.9037015467791</v>
+        <v>698.9037015467784</v>
       </c>
       <c r="G44" t="n">
         <v>331.2808843398486</v>
@@ -7649,28 +7649,28 @@
         <v>437.4316968760676</v>
       </c>
       <c r="K44" t="n">
-        <v>1092.155029011367</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L44" t="n">
-        <v>1706.925601880499</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M44" t="n">
-        <v>2240.457506552423</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N44" t="n">
-        <v>2787.236323611206</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O44" t="n">
-        <v>3290.208794490542</v>
+        <v>2805.568476424366</v>
       </c>
       <c r="P44" t="n">
-        <v>3684.98316084772</v>
+        <v>3518.923563871311</v>
       </c>
       <c r="Q44" t="n">
         <v>3933.269522603402</v>
       </c>
       <c r="R44" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S44" t="n">
         <v>3994.504809309626</v>
@@ -7679,19 +7679,19 @@
         <v>3835.976694641921</v>
       </c>
       <c r="U44" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V44" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W44" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X44" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y44" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>956.1786549456135</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C45" t="n">
-        <v>781.7256256644865</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D45" t="n">
-        <v>632.7912160032353</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E45" t="n">
-        <v>473.5537609977798</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F45" t="n">
-        <v>327.0192030246648</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G45" t="n">
-        <v>190.6561028572829</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H45" t="n">
-        <v>100.1542084951504</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I45" t="n">
         <v>81.14691689668915</v>
@@ -7749,25 +7749,25 @@
         <v>2579.688342997846</v>
       </c>
       <c r="R45" t="n">
-        <v>2579.543989590361</v>
+        <v>2579.543989590362</v>
       </c>
       <c r="S45" t="n">
-        <v>2450.106103083841</v>
+        <v>2450.106103083842</v>
       </c>
       <c r="T45" t="n">
-        <v>2257.463102761697</v>
+        <v>2257.463102761698</v>
       </c>
       <c r="U45" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V45" t="n">
-        <v>1794.24314766437</v>
+        <v>1794.243147664371</v>
       </c>
       <c r="W45" t="n">
-        <v>1540.005790936168</v>
+        <v>1540.005790936169</v>
       </c>
       <c r="X45" t="n">
-        <v>1332.154290730635</v>
+        <v>1332.154290730636</v>
       </c>
       <c r="Y45" t="n">
         <v>1124.393991965682</v>
@@ -7810,7 +7810,7 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L46" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M46" t="n">
         <v>1176.995117350173</v>
@@ -7825,31 +7825,31 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q46" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R46" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S46" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T46" t="n">
         <v>1953.038372570352</v>
       </c>
       <c r="U46" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V46" t="n">
-        <v>1504.150283386256</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W46" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X46" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2998821519675</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
   </sheetData>
@@ -8073,10 +8073,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>281.8804495849993</v>
+        <v>281.8804495849996</v>
       </c>
       <c r="Q3" t="n">
-        <v>52.32398832260139</v>
+        <v>52.32398832260134</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,13 +8532,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8711,7 +8711,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>29.61882225792094</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>29.61882225792094</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>29.61882225792094</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,25 +9398,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>133.2530576400255</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>241.9338129178271</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>258.6211785616945</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>29.61882225792185</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,13 +9872,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>132.999017557014</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>29.61882225792094</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,28 +10109,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>133.2530576400279</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>205.0727796301223</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10346,28 +10346,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>130.0020851999088</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10586,10 +10586,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>167.736966642837</v>
+        <v>71.87446026386925</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10601,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,13 +10820,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5185911550055</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>165.3902622431551</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10838,10 +10838,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>8.384404281969182e-13</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,13 +11060,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>40.02214132148691</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11078,7 +11078,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>165.3902622431554</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>8.384404281969182e-13</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,10 +11297,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>165.3902622431551</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11312,10 +11312,10 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>167.736966642837</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>8.384404281969182e-13</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>330.073225934691</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22705,10 +22705,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>114.1013043585049</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22717,7 +22717,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>69.8543761982808</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -22747,10 +22747,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>37.95387533906031</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>151.4072119725567</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22759,13 +22759,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2876267935253</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-4.050093593832571e-13</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>268.497284772222</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>12.99924321908361</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>23.67927805408911</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>12.65035738883677</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,7 +23890,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,7 +23899,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>15.51315812836904</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>119.524463704387</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>148.615473018211</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>112.6749020259161</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,16 +24181,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>3.334832781394653</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>16.14213605696631</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>16.14213605696665</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24619,7 +24619,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>3.556976973657356</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>16.14213605696668</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>16.14213605696679</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25072,10 +25072,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25087,7 +25087,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25123,7 +25123,7 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
-        <v>16.14213605696685</v>
+        <v>169.5827852326856</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>-8.242295734817162e-13</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25795,7 +25795,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>-7.105427357601002e-13</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26320,40 +26320,40 @@
         <v>225786.486712678</v>
       </c>
       <c r="E2" t="n">
-        <v>218394.9827878407</v>
+        <v>218394.9827878408</v>
       </c>
       <c r="F2" t="n">
-        <v>218394.9827878407</v>
+        <v>218394.9827878408</v>
       </c>
       <c r="G2" t="n">
         <v>218394.9827878408</v>
       </c>
       <c r="H2" t="n">
+        <v>218394.9827878408</v>
+      </c>
+      <c r="I2" t="n">
+        <v>218394.9827878408</v>
+      </c>
+      <c r="J2" t="n">
         <v>218394.9827878407</v>
       </c>
-      <c r="I2" t="n">
-        <v>218394.9827878407</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>218394.9827878408</v>
-      </c>
-      <c r="K2" t="n">
-        <v>218394.9827878407</v>
       </c>
       <c r="L2" t="n">
         <v>218394.9827878408</v>
       </c>
       <c r="M2" t="n">
+        <v>225786.486712678</v>
+      </c>
+      <c r="N2" t="n">
         <v>225786.4867126781</v>
-      </c>
-      <c r="N2" t="n">
-        <v>225786.486712678</v>
       </c>
       <c r="O2" t="n">
         <v>225786.486712678</v>
       </c>
       <c r="P2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126781</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26363,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>510843.5836680237</v>
+        <v>510843.583668024</v>
       </c>
       <c r="C3" t="n">
-        <v>75205.15751768381</v>
+        <v>75205.15751768349</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>158647.256887791</v>
+        <v>158647.2568877912</v>
       </c>
       <c r="K3" t="n">
         <v>17485.45300661296</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>122321.7272543793</v>
+        <v>122321.7272543794</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="F4" t="n">
         <v>25090.72367499382</v>
       </c>
       <c r="G4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499383</v>
       </c>
       <c r="H4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499384</v>
       </c>
       <c r="I4" t="n">
-        <v>25090.72367499383</v>
+        <v>25090.72367499385</v>
       </c>
       <c r="J4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499384</v>
       </c>
       <c r="K4" t="n">
-        <v>25090.72367499385</v>
+        <v>25090.72367499386</v>
       </c>
       <c r="L4" t="n">
         <v>25090.72367499384</v>
       </c>
       <c r="M4" t="n">
-        <v>62292.78252777377</v>
+        <v>62292.78252777382</v>
       </c>
       <c r="N4" t="n">
-        <v>62292.78252777376</v>
+        <v>62292.78252777382</v>
       </c>
       <c r="O4" t="n">
         <v>62292.78252777381</v>
       </c>
       <c r="P4" t="n">
-        <v>62292.78252777384</v>
+        <v>62292.78252777382</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>77453.39934293451</v>
+        <v>77453.39934293454</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26482,16 +26482,16 @@
         <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="J5" t="n">
         <v>96383.51825371367</v>
-      </c>
-      <c r="J5" t="n">
-        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371367</v>
@@ -26500,16 +26500,16 @@
         <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="N5" t="n">
         <v>89377.9416748061</v>
       </c>
       <c r="O5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="P5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-577006.9455040275</v>
+        <v>-577072.6300759889</v>
       </c>
       <c r="C6" t="n">
-        <v>-133342.2547961468</v>
+        <v>-133342.2547961465</v>
       </c>
       <c r="D6" t="n">
-        <v>-58137.09727846293</v>
+        <v>-58137.09727846304</v>
       </c>
       <c r="E6" t="n">
-        <v>-630456.6731342734</v>
+        <v>-630523.8686244992</v>
       </c>
       <c r="F6" t="n">
-        <v>96920.74085913324</v>
+        <v>96853.54536890751</v>
       </c>
       <c r="G6" t="n">
-        <v>96920.74085913329</v>
+        <v>96853.5453689077</v>
       </c>
       <c r="H6" t="n">
-        <v>96920.74085913326</v>
+        <v>96853.54536890752</v>
       </c>
       <c r="I6" t="n">
-        <v>96920.74085913319</v>
+        <v>96853.54536890752</v>
       </c>
       <c r="J6" t="n">
-        <v>-61726.51602865769</v>
+        <v>-61793.71151888381</v>
       </c>
       <c r="K6" t="n">
-        <v>79435.28785252027</v>
+        <v>79368.09236229451</v>
       </c>
       <c r="L6" t="n">
-        <v>96920.74085913331</v>
+        <v>96853.54536890749</v>
       </c>
       <c r="M6" t="n">
-        <v>-48205.96474428108</v>
+        <v>-48205.96474428127</v>
       </c>
       <c r="N6" t="n">
-        <v>74115.76251009809</v>
+        <v>74115.76251009815</v>
       </c>
       <c r="O6" t="n">
-        <v>74115.76251009802</v>
+        <v>74115.76251009804</v>
       </c>
       <c r="P6" t="n">
-        <v>74115.76251009805</v>
+        <v>74115.76251009815</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O2" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>319.2593901498946</v>
+        <v>319.2593901498948</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>606.3477736458357</v>
+        <v>606.347773645836</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>319.2593901498946</v>
+        <v>319.2593901498948</v>
       </c>
       <c r="C3" t="n">
-        <v>58.48427406719208</v>
+        <v>58.48427406719185</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>606.3477736458357</v>
+        <v>606.347773645836</v>
       </c>
       <c r="C4" t="n">
-        <v>67.93949910872006</v>
+        <v>67.93949910871967</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,10 +27033,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>606.3477736458354</v>
+        <v>606.3477736458362</v>
       </c>
       <c r="K4" t="n">
-        <v>67.93949910872028</v>
+        <v>67.93949910871967</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>606.3477736458357</v>
+        <v>606.347773645836</v>
       </c>
       <c r="K4" t="n">
-        <v>67.93949910872006</v>
+        <v>67.93949910871967</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>20.61959094821231</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>326.3306202891436</v>
       </c>
       <c r="I2" t="n">
-        <v>160.9954970528026</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>33.07800698067325</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27433,16 +27433,16 @@
         <v>217.4775260249106</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2429765210546</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27458,7 +27458,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>65.75336669408797</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27512,10 +27512,10 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>41.53195881493599</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>47.19323734791257</v>
       </c>
     </row>
     <row r="4">
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>10.95734504878274</v>
       </c>
       <c r="C4" t="n">
-        <v>53.14551674012289</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.4152657040901</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>157.1085547440527</v>
       </c>
       <c r="I4" t="n">
         <v>138.1371952122443</v>
       </c>
       <c r="J4" t="n">
-        <v>52.65622475280836</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,25 +27579,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>37.95387533906027</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>151.4072119725567</v>
       </c>
       <c r="S4" t="n">
-        <v>213.9834791694747</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.485721995979</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2876267935253</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>230.1603801106395</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>132.6012879633033</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27755,13 +27755,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
     </row>
     <row r="7">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>128.2824964690569</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>100.2459210690977</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>42.5057813816195</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>172.4905932964272</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>11.79420836743367</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>51.97117195339683</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28749,7 +28749,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -28962,7 +28962,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859216</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F41" t="n">
-        <v>46.9751366185921</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.283454834773444</v>
+        <v>1.283454834773445</v>
       </c>
       <c r="H2" t="n">
-        <v>13.14418182662354</v>
+        <v>13.14418182662355</v>
       </c>
       <c r="I2" t="n">
-        <v>49.48039251760326</v>
+        <v>49.4803925176033</v>
       </c>
       <c r="J2" t="n">
-        <v>108.9316247828527</v>
+        <v>108.9316247828528</v>
       </c>
       <c r="K2" t="n">
-        <v>163.2602679388127</v>
+        <v>163.2602679388128</v>
       </c>
       <c r="L2" t="n">
-        <v>202.5387988385105</v>
+        <v>202.5387988385106</v>
       </c>
       <c r="M2" t="n">
-        <v>225.3634387564127</v>
+        <v>225.3634387564129</v>
       </c>
       <c r="N2" t="n">
-        <v>229.0100548057128</v>
+        <v>229.010054805713</v>
       </c>
       <c r="O2" t="n">
-        <v>216.2477007924344</v>
+        <v>216.2477007924345</v>
       </c>
       <c r="P2" t="n">
-        <v>184.5624095589649</v>
+        <v>184.562409558965</v>
       </c>
       <c r="Q2" t="n">
-        <v>138.5986832886409</v>
+        <v>138.598683288641</v>
       </c>
       <c r="R2" t="n">
-        <v>80.62181976483745</v>
+        <v>80.62181976483751</v>
       </c>
       <c r="S2" t="n">
-        <v>29.2467270473999</v>
+        <v>29.24672704739992</v>
       </c>
       <c r="T2" t="n">
-        <v>5.618323539220756</v>
+        <v>5.61832353922076</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1026763867818755</v>
+        <v>0.1026763867818756</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6867088769261883</v>
+        <v>0.6867088769261888</v>
       </c>
       <c r="H3" t="n">
-        <v>6.632162048208188</v>
+        <v>6.632162048208193</v>
       </c>
       <c r="I3" t="n">
-        <v>23.6432661573271</v>
+        <v>23.64326615732712</v>
       </c>
       <c r="J3" t="n">
-        <v>64.87892946432906</v>
+        <v>64.8789294643291</v>
       </c>
       <c r="K3" t="n">
         <v>110.8884242183837</v>
       </c>
       <c r="L3" t="n">
-        <v>149.1031708431182</v>
+        <v>149.1031708431183</v>
       </c>
       <c r="M3" t="n">
-        <v>173.9963676316925</v>
+        <v>173.9963676316926</v>
       </c>
       <c r="N3" t="n">
-        <v>178.6015337405528</v>
+        <v>178.601533740553</v>
       </c>
       <c r="O3" t="n">
-        <v>163.3855107307673</v>
+        <v>163.3855107307674</v>
       </c>
       <c r="P3" t="n">
-        <v>131.1312766825105</v>
+        <v>131.1312766825106</v>
       </c>
       <c r="Q3" t="n">
-        <v>87.65778576342012</v>
+        <v>87.65778576342018</v>
       </c>
       <c r="R3" t="n">
-        <v>42.63618799020669</v>
+        <v>42.63618799020672</v>
       </c>
       <c r="S3" t="n">
-        <v>12.75531620080002</v>
+        <v>12.75531620080003</v>
       </c>
       <c r="T3" t="n">
-        <v>2.767918674978802</v>
+        <v>2.767918674978804</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04517821558724925</v>
+        <v>0.04517821558724928</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5757136543686623</v>
+        <v>0.5757136543686626</v>
       </c>
       <c r="H4" t="n">
-        <v>5.118617763386837</v>
+        <v>5.118617763386841</v>
       </c>
       <c r="I4" t="n">
-        <v>17.31327971501396</v>
+        <v>17.31327971501397</v>
       </c>
       <c r="J4" t="n">
-        <v>40.70295536386442</v>
+        <v>40.70295536386445</v>
       </c>
       <c r="K4" t="n">
-        <v>66.88745911665002</v>
+        <v>66.88745911665006</v>
       </c>
       <c r="L4" t="n">
-        <v>85.59291912313731</v>
+        <v>85.59291912313738</v>
       </c>
       <c r="M4" t="n">
-        <v>90.24573220253492</v>
+        <v>90.245732202535</v>
       </c>
       <c r="N4" t="n">
-        <v>88.09989039988817</v>
+        <v>88.09989039988822</v>
       </c>
       <c r="O4" t="n">
-        <v>81.37450816476331</v>
+        <v>81.37450816476337</v>
       </c>
       <c r="P4" t="n">
-        <v>69.62994961564254</v>
+        <v>69.62994961564259</v>
       </c>
       <c r="Q4" t="n">
-        <v>48.20816791263407</v>
+        <v>48.20816791263411</v>
       </c>
       <c r="R4" t="n">
-        <v>25.88617940461275</v>
+        <v>25.88617940461277</v>
       </c>
       <c r="S4" t="n">
-        <v>10.0331188674975</v>
+        <v>10.03311886749751</v>
       </c>
       <c r="T4" t="n">
-        <v>2.459867432302465</v>
+        <v>2.459867432302467</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03140256296556343</v>
+        <v>0.03140256296556346</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33518,7 +33518,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>96.98233542824022</v>
+        <v>96.98233542824029</v>
       </c>
       <c r="K2" t="n">
-        <v>267.3158294649969</v>
+        <v>267.315829464997</v>
       </c>
       <c r="L2" t="n">
-        <v>384.4335984189737</v>
+        <v>384.4335984189738</v>
       </c>
       <c r="M2" t="n">
-        <v>444.5307390219725</v>
+        <v>444.5307390219726</v>
       </c>
       <c r="N2" t="n">
-        <v>436.943915621106</v>
+        <v>436.9439156211062</v>
       </c>
       <c r="O2" t="n">
-        <v>366.949670633493</v>
+        <v>366.9496706334932</v>
       </c>
       <c r="P2" t="n">
-        <v>275.128121975178</v>
+        <v>275.1281219751781</v>
       </c>
       <c r="Q2" t="n">
-        <v>128.6079840740961</v>
+        <v>128.6079840740962</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>64.1323381380712</v>
+        <v>64.13233813807125</v>
       </c>
       <c r="K3" t="n">
-        <v>237.5122222566033</v>
+        <v>237.5122222566034</v>
       </c>
       <c r="L3" t="n">
-        <v>381.3891363667032</v>
+        <v>381.3891363667033</v>
       </c>
       <c r="M3" t="n">
-        <v>497.5673974596741</v>
+        <v>497.5673974596742</v>
       </c>
       <c r="N3" t="n">
-        <v>526.602196000773</v>
+        <v>526.6021960007731</v>
       </c>
       <c r="O3" t="n">
-        <v>414.6515855630523</v>
+        <v>414.6515855630524</v>
       </c>
       <c r="P3" t="n">
-        <v>279.0373188531795</v>
+        <v>279.03731885318</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>44.61796729076717</v>
+        <v>44.61796729076721</v>
       </c>
       <c r="L4" t="n">
-        <v>113.1829443834534</v>
+        <v>113.1829443834535</v>
       </c>
       <c r="M4" t="n">
-        <v>129.8296091643755</v>
+        <v>129.8296091643756</v>
       </c>
       <c r="N4" t="n">
-        <v>132.2320627791167</v>
+        <v>132.2320627791168</v>
       </c>
       <c r="O4" t="n">
         <v>105.959636078803</v>
       </c>
       <c r="P4" t="n">
-        <v>66.90850888053603</v>
+        <v>66.90850888053608</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35030,10 +35030,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,13 +35252,13 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35422,7 +35422,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908545</v>
@@ -35431,7 +35431,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>89.23202080014572</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>89.23202080014572</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35884,28 +35884,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R17" t="n">
-        <v>89.23202080014572</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721702</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
         <v>347.6333793934838</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>324.040058608738</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>697.523927310159</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>766.6741794499135</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>89.23202080014663</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>588.589131949346</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R26" t="n">
-        <v>89.23202080014572</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36765,13 +36765,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
         <v>873.2513289427824</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O29" t="n">
-        <v>508.053000888219</v>
+        <v>641.3060585282469</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>455.8670844338417</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
         <v>59.61319854222472</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>320.7890861686213</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M32" t="n">
         <v>988.434649323059</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
         <v>59.61319854222472</v>
@@ -37166,7 +37166,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37306,10 +37306,10 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>504.9282531982374</v>
+        <v>409.0657468192696</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302265</v>
@@ -37321,7 +37321,7 @@
         <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
         <v>250.7943048037194</v>
@@ -37461,16 +37461,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K37" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M37" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N37" t="n">
         <v>391.8320827861326</v>
@@ -37479,7 +37479,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P37" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q37" t="n">
         <v>125.3693751564862</v>
@@ -37540,13 +37540,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>315.305592123718</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>620.980376635487</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302265</v>
@@ -37558,10 +37558,10 @@
         <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37698,16 +37698,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
         <v>391.8320827861326</v>
@@ -37716,7 +37716,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3693751564862</v>
@@ -37780,13 +37780,13 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>495.6122557138189</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129113</v>
@@ -37798,7 +37798,7 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>416.1845670468748</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
@@ -38017,10 +38017,10 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>620.980376635487</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302265</v>
@@ -38032,10 +38032,10 @@
         <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>418.5312714465564</v>
       </c>
       <c r="R44" t="n">
         <v>125.3296184152072</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
@@ -38184,7 +38184,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
